--- a/Results/TCGA/TCGA.FoundVariantsRNA.xlsx
+++ b/Results/TCGA/TCGA.FoundVariantsRNA.xlsx
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TCGA-AB-2863-03B_Alq1</t>
+          <t>TCGA-AB-2863-03B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TCGA-AB-2863-03D_Alq2</t>
+          <t>TCGA-AB-2863-03D</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
